--- a/src/Web/static/reports/InvoiceTemplate2_bsv.xlsx
+++ b/src/Web/static/reports/InvoiceTemplate2_bsv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\Web\static\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D1E443-E854-4464-BED9-56FBFDB54733}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A34DDA-111E-4005-8342-7772C6C7C22B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Постачальник</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>[[Warning1]]</t>
-  </si>
-  <si>
-    <t>[[FooterDetails]]</t>
   </si>
   <si>
     <t>Найменування послуг</t>
@@ -216,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -264,6 +261,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -563,99 +563,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="7" width="14" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" ht="25.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="22"/>
+      <c r="B12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="23"/>
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
@@ -673,10 +674,10 @@
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -684,10 +685,10 @@
         <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -697,7 +698,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="9"/>
       <c r="F14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>21</v>
@@ -726,18 +727,16 @@
     </row>
     <row r="24" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="15"/>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -746,7 +745,8 @@
       <c r="G27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C24:G24"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="B12:C12"/>
